--- a/biology/Biochimie/Psicose/Psicose.xlsx
+++ b/biology/Biochimie/Psicose/Psicose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le psicose est un cétohexose (un hexose du type cétose), c'est un ose constitué d’une chaîne de cinq éléments carbone ainsi que d’une fonction cétone.
@@ -512,11 +524,13 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le psicose est un ose rare épimère en C-3 du D-fructose, faiblement présent dans la nature. Sa formule chimique est C6H12O6. 
 Son nom est dérivé de l'antibiotique le psicofuranine, à partir duquel il est isolé.
-Dans l'eau à 27 °C, la forme isomère prédominante est la forme alpha-D-psicosefuranose (39 %)[2].
+Dans l'eau à 27 °C, la forme isomère prédominante est la forme alpha-D-psicosefuranose (39 %).
 </t>
         </is>
       </c>
